--- a/taiwan-motorcycles-rate-20160719/taiwan-motorcycles-rate-20160719.xlsx
+++ b/taiwan-motorcycles-rate-20160719/taiwan-motorcycles-rate-20160719.xlsx
@@ -47,16 +47,7 @@
     <t>motorcycles</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>cars</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.ndc.gov.tw/en/News_Content.aspx?n=AC1FC98C56BFAE2D&amp;sms=F7FE3808BEC335F3&amp;s=33A1F4DB0C99861D"&gt;Taiwan Development Council, Urban and Regional Development Statistics&lt;/a&gt;</t>
   </si>
   <si>
     <t>trucks</t>
@@ -65,10 +56,7 @@
     <t>mrate</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+    <t>footnote</t>
   </si>
   <si>
     <t>carrate</t>
@@ -80,7 +68,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ndc.gov.tw/en/News_Content.aspx?n=AC1FC98C56BFAE2D&amp;sms=F7FE3808BEC335F3&amp;s=33A1F4DB0C99861D"&gt;Taiwan Development Council, Urban and Regional Development Statistics&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>1991</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
     <t>1992</t>
@@ -201,74 +201,69 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -278,15 +273,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +362,7 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7"/>
@@ -394,7 +392,7 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
@@ -424,10 +422,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -456,10 +454,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -773,6 +771,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,60 +805,60 @@
         <v>7</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="4">
         <f t="shared" ref="B2:B15" si="1">(G2+H2)/1000000</f>
-        <v>3.2</v>
-      </c>
-      <c r="C2" s="4" t="str">
+        <v>3.177813</v>
+      </c>
+      <c r="C2" s="4">
         <f t="shared" ref="C2:C25" si="2">G2/1000000</f>
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="4" t="str">
+        <v>2.541362</v>
+      </c>
+      <c r="D2" s="4">
         <f t="shared" ref="D2:D15" si="3">F2/1000000</f>
-        <v>7.4</v>
-      </c>
-      <c r="E2" s="15"/>
+        <v>7.409175</v>
+      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="16">
         <v>7409175.0</v>
       </c>
@@ -867,37 +868,37 @@
       <c r="H2" s="16">
         <v>636451.0</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="15">
         <v>362.2</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="15">
         <v>124.2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2">
         <f t="shared" ref="K2:K25" si="4">L2-J2</f>
         <v>31.2</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="15">
         <v>155.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="4">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="C3" s="4" t="str">
+        <v>3.592086</v>
+      </c>
+      <c r="C3" s="4">
         <f t="shared" si="2"/>
-        <v>2.9</v>
-      </c>
-      <c r="D3" s="4" t="str">
+        <v>2.900041</v>
+      </c>
+      <c r="D3" s="4">
         <f t="shared" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="E3" s="15"/>
+        <v>7.649311</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="16">
         <v>7649311.0</v>
       </c>
@@ -907,37 +908,37 @@
       <c r="H3" s="16">
         <v>692045.0</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="15">
         <v>370.3</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="15">
         <v>140.4</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3">
         <f t="shared" si="4"/>
         <v>33.5</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="15">
         <v>173.9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="4">
         <f t="shared" si="1"/>
-        <v>4.0</v>
-      </c>
-      <c r="C4" s="4" t="str">
+        <v>3.956535</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-      <c r="D4" s="4" t="str">
+        <v>3.238755</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="E4" s="15"/>
+        <v>7.867394</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="16">
         <v>7867394.0</v>
       </c>
@@ -947,37 +948,37 @@
       <c r="H4" s="16">
         <v>717780.0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="15">
         <v>377.4</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="15">
         <v>155.3</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4">
         <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="15">
         <v>189.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="4">
         <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="C5" s="4" t="str">
+        <v>4.303563</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="D5" s="4" t="str">
+        <v>3.570501</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="3"/>
-        <v>8.0</v>
-      </c>
-      <c r="E5" s="15"/>
+        <v>8.034509</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="16">
         <v>8034509.0</v>
       </c>
@@ -987,37 +988,37 @@
       <c r="H5" s="16">
         <v>733062.0</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="15">
         <v>382.0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="15">
         <v>169.7</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5">
         <f t="shared" si="4"/>
         <v>34.9</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="15">
         <v>204.6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="4">
         <f t="shared" si="1"/>
-        <v>4.6</v>
-      </c>
-      <c r="C6" s="4" t="str">
+        <v>4.643951</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="2"/>
-        <v>3.9</v>
-      </c>
-      <c r="D6" s="4" t="str">
+        <v>3.874203</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="E6" s="15"/>
+        <v>8.517024</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="16">
         <v>8517024.0</v>
       </c>
@@ -1027,37 +1028,37 @@
       <c r="H6" s="16">
         <v>769748.0</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="15">
         <v>401.5</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="15">
         <v>182.6</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6">
         <f t="shared" si="4"/>
         <v>36.3</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="15">
         <v>218.9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
-        <v>4.9</v>
-      </c>
-      <c r="C7" s="4" t="str">
+        <v>4.946131</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="2"/>
-        <v>4.1</v>
-      </c>
-      <c r="D7" s="4" t="str">
+        <v>4.146475</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="3"/>
-        <v>9.3</v>
-      </c>
-      <c r="E7" s="15"/>
+        <v>9.283914</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="16">
         <v>9283914.0</v>
       </c>
@@ -1067,37 +1068,37 @@
       <c r="H7" s="16">
         <v>799656.0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="15">
         <v>434.1</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="15">
         <v>193.9</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7">
         <f t="shared" si="4"/>
         <v>37.4</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="15">
         <v>231.3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="4">
         <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="C8" s="4" t="str">
+        <v>5.237511</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="2"/>
-        <v>4.4</v>
-      </c>
-      <c r="D8" s="4" t="str">
+        <v>4.403966</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="3"/>
-        <v>10.0</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>10.027471</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="16">
         <v>1.0027471E7</v>
       </c>
@@ -1107,37 +1108,37 @@
       <c r="H8" s="16">
         <v>833545.0</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="15">
         <v>464.7</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="15">
         <v>204.1</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8">
         <f t="shared" si="4"/>
         <v>38.6</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="15">
         <v>242.7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="4">
         <f t="shared" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="C9" s="4" t="str">
+        <v>5.370763</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="D9" s="4" t="str">
+        <v>4.536605</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="3"/>
-        <v>10.5</v>
-      </c>
-      <c r="E9" s="15"/>
+        <v>10.503877</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="16">
         <v>1.0503877E7</v>
       </c>
@@ -1147,37 +1148,37 @@
       <c r="H9" s="16">
         <v>834158.0</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="15">
         <v>482.3</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="15">
         <v>208.3</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <f t="shared" si="4"/>
         <v>38.3</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="15">
         <v>246.6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
-        <v>5.3</v>
-      </c>
-      <c r="C10" s="4" t="str">
+        <v>5.301021</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="D10" s="4" t="str">
+        <v>4.499781</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="3"/>
-        <v>10.9</v>
-      </c>
-      <c r="E10" s="15"/>
+        <v>10.93215</v>
+      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="16">
         <v>1.093215E7</v>
       </c>
@@ -1187,37 +1188,37 @@
       <c r="H10" s="16">
         <v>801240.0</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="15">
         <v>498.0</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="15">
         <v>205.0</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <f t="shared" si="4"/>
         <v>36.5</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="15">
         <v>241.5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="C11" s="4" t="str">
+        <v>5.535751</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D11" s="4" t="str">
+        <v>4.705895</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="3"/>
-        <v>11.4</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>11.395621</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="16">
         <v>1.1395621E7</v>
       </c>
@@ -1227,37 +1228,37 @@
       <c r="H11" s="16">
         <v>829856.0</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="15">
         <v>515.1</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="15">
         <v>212.7</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="15">
         <v>250.2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="4">
         <f t="shared" si="1"/>
-        <v>5.7</v>
-      </c>
-      <c r="C12" s="4" t="str">
+        <v>5.667267</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="2"/>
-        <v>4.8</v>
-      </c>
-      <c r="D12" s="4" t="str">
+        <v>4.814956</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="3"/>
-        <v>11.7</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>11.704003</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="16">
         <v>1.1704003E7</v>
       </c>
@@ -1267,37 +1268,37 @@
       <c r="H12" s="16">
         <v>852311.0</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="15">
         <v>525.4</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="15">
         <v>216.1</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12">
         <f t="shared" si="4"/>
         <v>38.3</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="15">
         <v>254.4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>5.9</v>
-      </c>
-      <c r="C13" s="4" t="str">
+        <v>5.856812</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="2"/>
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="4" t="str">
+        <v>4.977552</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="3"/>
-        <v>12.0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>11.952876</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="16">
         <v>1.1952876E7</v>
       </c>
@@ -1307,37 +1308,37 @@
       <c r="H13" s="16">
         <v>879260.0</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="15">
         <v>533.7</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="15">
         <v>222.2</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
         <f t="shared" si="4"/>
         <v>39.3</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="15">
         <v>261.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="4">
         <f t="shared" si="1"/>
-        <v>6.1</v>
-      </c>
-      <c r="C14" s="4" t="str">
+        <v>6.065565</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="D14" s="4" t="str">
+        <v>5.15676</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="3"/>
-        <v>12.3</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>12.33483</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="16">
         <v>1.233483E7</v>
       </c>
@@ -1347,37 +1348,37 @@
       <c r="H14" s="16">
         <v>908805.0</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="15">
         <v>548.4</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="15">
         <v>229.3</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14">
         <f t="shared" si="4"/>
         <v>40.4</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="15">
         <v>269.7</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="4">
         <f t="shared" si="1"/>
-        <v>6.3</v>
-      </c>
-      <c r="C15" s="4" t="str">
+        <v>6.319733</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="D15" s="4" t="str">
+        <v>5.376886</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="3"/>
-        <v>12.8</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>12.760727</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="16">
         <v>1.2760727E7</v>
       </c>
@@ -1387,17 +1388,17 @@
       <c r="H15" s="16">
         <v>942847.0</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="15">
         <v>565.3</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="15">
         <v>238.2</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15">
         <f t="shared" si="4"/>
         <v>41.7</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="15">
         <v>279.9</v>
       </c>
     </row>
@@ -1408,9 +1409,9 @@
       <c r="B16" s="4">
         <v>6.596355</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="C16" s="4">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>5.618948</v>
       </c>
       <c r="D16" s="4">
         <v>13.16035</v>
@@ -1425,20 +1426,20 @@
       <c r="H16" s="18">
         <v>977407.0</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="15">
         <v>581.0</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="15">
         <v>248.0</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
         <f t="shared" si="4"/>
         <v>43.2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="15">
         <v>291.2</v>
       </c>
-      <c r="N16" s="13"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
@@ -1447,9 +1448,9 @@
       <c r="B17" s="4">
         <v>6.678145</v>
       </c>
-      <c r="C17" s="4" t="str">
+      <c r="C17" s="4">
         <f t="shared" si="2"/>
-        <v>5.7</v>
+        <v>5.681981</v>
       </c>
       <c r="D17" s="4">
         <v>13.520764</v>
@@ -1464,20 +1465,20 @@
       <c r="H17" s="18">
         <v>996164.0</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="15">
         <v>594.6</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="15">
         <v>249.9</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17">
         <f t="shared" si="4"/>
         <v>43.8</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <v>293.7</v>
       </c>
-      <c r="N17" s="13"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
@@ -1486,9 +1487,9 @@
       <c r="B18" s="4">
         <v>6.680403</v>
       </c>
-      <c r="C18" s="4" t="str">
+      <c r="C18" s="4">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>5.619111</v>
       </c>
       <c r="D18" s="4">
         <v>14.127373</v>
@@ -1503,20 +1504,20 @@
       <c r="H18" s="18">
         <v>1061292.0</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="15">
         <v>618.8</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="15">
         <v>246.1</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="15">
         <v>292.6</v>
       </c>
-      <c r="N18" s="13"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
@@ -1525,9 +1526,9 @@
       <c r="B19" s="4">
         <v>6.675436</v>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="C19" s="4">
         <f t="shared" si="2"/>
-        <v>5.7</v>
+        <v>5.674426</v>
       </c>
       <c r="D19" s="4">
         <v>14.365442</v>
@@ -1542,20 +1543,20 @@
       <c r="H19" s="18">
         <v>1001010.0</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="15">
         <v>624.6</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="15">
         <v>246.7</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19">
         <f t="shared" si="4"/>
         <v>43.6</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="15">
         <v>290.3</v>
       </c>
-      <c r="N19" s="13"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
@@ -1564,9 +1565,9 @@
       <c r="B20" s="4">
         <v>6.718746</v>
       </c>
-      <c r="C20" s="4" t="str">
+      <c r="C20" s="4">
         <f t="shared" si="2"/>
-        <v>5.7</v>
+        <v>5.704312</v>
       </c>
       <c r="D20" s="4">
         <v>14.60433</v>
@@ -1581,20 +1582,20 @@
       <c r="H20" s="18">
         <v>1014434.0</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="15">
         <v>632.8</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="15">
         <v>247.2</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20">
         <f t="shared" si="4"/>
         <v>43.9</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="15">
         <v>291.1</v>
       </c>
-      <c r="N20" s="13"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
@@ -1603,9 +1604,9 @@
       <c r="B21" s="4">
         <v>6.825993</v>
       </c>
-      <c r="C21" s="4" t="str">
+      <c r="C21" s="4">
         <f t="shared" si="2"/>
-        <v>5.8</v>
+        <v>5.803413</v>
       </c>
       <c r="D21" s="4">
         <v>14.844932</v>
@@ -1620,20 +1621,20 @@
       <c r="H21" s="18">
         <v>1022580.0</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="15">
         <v>641.5</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="15">
         <v>250.8</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21">
         <f t="shared" si="4"/>
         <v>44.2</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="15">
         <v>295.0</v>
       </c>
-      <c r="N21" s="13"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
@@ -1642,9 +1643,9 @@
       <c r="B22" s="4">
         <v>7.003032</v>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="C22" s="4">
         <f t="shared" si="2"/>
-        <v>6.0</v>
+        <v>5.960088</v>
       </c>
       <c r="D22" s="4">
         <v>15.173602</v>
@@ -1659,20 +1660,20 @@
       <c r="H22" s="18">
         <v>1042944.0</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="15">
         <v>654.2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="15">
         <v>257.0</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22">
         <f t="shared" si="4"/>
         <v>44.9</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="15">
         <v>301.9</v>
       </c>
-      <c r="N22" s="13"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
@@ -1681,9 +1682,9 @@
       <c r="B23" s="4">
         <v>7.145908</v>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="C23" s="4">
         <f t="shared" si="2"/>
-        <v>6.1</v>
+        <v>6.091324</v>
       </c>
       <c r="D23" s="4">
         <v>15.139628</v>
@@ -1698,20 +1699,20 @@
       <c r="H23" s="18">
         <v>1054584.0</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="15">
         <v>650.6</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="15">
         <v>261.8</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23">
         <f t="shared" si="4"/>
         <v>45.3</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="15">
         <v>307.1</v>
       </c>
-      <c r="N23" s="13"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
@@ -1720,9 +1721,9 @@
       <c r="B24" s="4">
         <v>7.306505</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="4">
         <f t="shared" si="2"/>
-        <v>6.2</v>
+        <v>6.236879</v>
       </c>
       <c r="D24" s="4">
         <v>14.195123</v>
@@ -1737,17 +1738,17 @@
       <c r="H24" s="18">
         <v>1069626.0</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="15">
         <v>608.1</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="15">
         <v>267.2</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24">
         <f t="shared" si="4"/>
         <v>39.5</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="15">
         <v>306.7</v>
       </c>
     </row>
@@ -1758,9 +1759,9 @@
       <c r="B25" s="4">
         <v>7.492855</v>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="C25" s="4">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>6.405778</v>
       </c>
       <c r="D25" s="4">
         <v>13.735994</v>
@@ -1775,787 +1776,787 @@
       <c r="H25" s="18">
         <v>1087077.0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="15">
         <v>586.9</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="15">
         <v>273.7</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="15">
         <v>320.2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="19"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
     <row r="39">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
     </row>
     <row r="41">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
     </row>
     <row r="42">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
     <row r="43">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
     <row r="44">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
     <row r="45">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
     <row r="46">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
     <row r="47">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
     <row r="48">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
     </row>
     <row r="49">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
     <row r="50">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
     </row>
     <row r="51">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
     </row>
     <row r="52">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
     </row>
     <row r="53">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
     </row>
     <row r="54">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
     </row>
     <row r="55">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
     </row>
     <row r="56">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
     </row>
     <row r="57">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
     </row>
     <row r="58">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
     </row>
     <row r="59">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
     </row>
     <row r="60">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
     </row>
     <row r="61">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
     </row>
     <row r="62">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
     </row>
     <row r="63">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
     </row>
     <row r="64">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
     </row>
     <row r="65">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
     </row>
     <row r="66">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
     </row>
     <row r="67">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
     </row>
     <row r="68">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
     </row>
     <row r="69">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
     </row>
     <row r="70">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
     </row>
     <row r="71">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
     </row>
     <row r="72">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
     </row>
     <row r="73">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
     </row>
     <row r="74">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
     </row>
     <row r="75">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
     </row>
     <row r="76">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
     </row>
     <row r="77">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
     </row>
     <row r="78">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
     </row>
     <row r="79">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
     </row>
     <row r="80">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
     </row>
     <row r="81">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
     </row>
     <row r="82">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
     </row>
     <row r="83">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
     </row>
     <row r="84">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
     </row>
     <row r="85">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
     </row>
     <row r="86">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
     </row>
     <row r="87">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
     </row>
     <row r="88">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
     </row>
     <row r="89">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
     </row>
     <row r="90">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
     </row>
     <row r="91">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
     </row>
     <row r="92">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
     </row>
     <row r="93">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
     </row>
     <row r="94">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
     </row>
     <row r="95">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
     </row>
     <row r="96">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
     </row>
     <row r="97">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
     </row>
     <row r="98">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
     </row>
     <row r="99">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
     </row>
     <row r="100">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
     </row>
     <row r="101">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
     </row>
     <row r="102">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
